--- a/src/onboarding/Data_Key-Map.xlsx
+++ b/src/onboarding/Data_Key-Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengtang/script/FDSN-CS-ML/src/onboarding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F481D40A-36EB-C04F-A482-171E09670017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0625B6-3700-CC41-A4CA-C872432D9A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12240" yWindow="500" windowWidth="20380" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,7 +782,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/onboarding/Data_Key-Map.xlsx
+++ b/src/onboarding/Data_Key-Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,11 @@
           <t>object</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SPC-MET-all,</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -636,7 +640,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ethnic,Ethn,Ethnicity 1,</t>
+          <t>Ethnic,Ethn,Ethnicity 1,Ethnicity</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -659,7 +663,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ethnicity 2,</t>
+          <t>Ethnicity 2,race1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -737,7 +741,11 @@
           <t>int64</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SPC-MET-all,</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -764,7 +772,11 @@
           <t>b_TG</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TGB,</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>Baseline triglyceride level, taken before any treatment</t>
@@ -928,7 +940,11 @@
           <t>b_Glc</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GlucB,</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Baseline blood glucose level, taken before any treatment</t>
@@ -949,7 +965,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nGlc</t>
+          <t>nGlc,GlucN,</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1012,7 +1028,11 @@
           <t>b_Ins</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>InsB,</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>Baseline insulin level, taken before any treatment</t>
@@ -1905,6 +1925,93 @@
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SampleID</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>(not important value, for study record only)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AgeCat</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Age category</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>AgeCat2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Age category 2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BodyComp</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BCompCat</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/onboarding/Data_Key-Map.xlsx
+++ b/src/onboarding/Data_Key-Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MMTT_COF1-Metab-2014,,RRB-Met-data_finalized_for_analysis_CS,,MMTT_SAT-Demo-Sheet1,,RRB-Met-data_finalized,</t>
+          <t>MMTT_COF1-Metab-2014,,RRB-Met-data_finalized_for_analysis_CS,,MMTT_SAT-Demo-Sheet1,,RRB-Met-data_finalized,,MMTT_STRAW-Dose-resposne_2014,</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SPC-MET-all,,RRB-Met-data_finalized_for_analysis_CS,,RRB-Met-data_finalized,</t>
+          <t>SPC-MET-all,,RRB-Met-data_finalized_for_analysis_CS,,RRB-Met-data_finalized,,MMTT_STRAW-Dose-resposne_2014,</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glucose,GLU</t>
+          <t>Glucose,GLU,gluc</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -894,7 +894,11 @@
           <t>float64</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>STRB-DEMO-Met,</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1389,7 +1393,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1485,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1577,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,</t>
         </is>
       </c>
     </row>
@@ -2426,6 +2430,246 @@
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Repeat</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Waist1_3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Waist2_3</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Waist3_3</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Waist4_1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Waist4_2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Waist4_3</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Waist4_M</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Waist5_1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Waist5_2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Waist5_3</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Waist5_M</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Waist6_1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Waist6_2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Waist6_3</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Waist6_M</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/onboarding/Data_Key-Map.xlsx
+++ b/src/onboarding/Data_Key-Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RRB-Met-data_finalized_for_analysis_CS,,MMTT_SAT-Demo-Sheet1,</t>
+          <t>RRB-Met-data_finalized_for_analysis_CS,,MMTT_SAT-Demo-Sheet1,,MMTT_FRTS-,</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MMTT_COF1-Metab-2014,,RRB-Met-data_finalized_for_analysis_CS,,MMTT_SAT-Demo-Sheet1,,RRB-Met-data_finalized,,MMTT_STRAW-Dose-resposne_2014,</t>
+          <t>MMTT_COF1-Metab-2014,,RRB-Met-data_finalized_for_analysis_CS,,MMTT_SAT-Demo-Sheet1,,RRB-Met-data_finalized,,MMTT_STRAW-Dose-resposne_2014,,MMTT_FRTS-,</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SPC-MET-all,,RRB-Met-data_finalized_for_analysis_CS,,RRB-Met-data_finalized,,MMTT_STRAW-Dose-resposne_2014,</t>
+          <t>SPC-MET-all,,RRB-Met-data_finalized_for_analysis_CS,,RRB-Met-data_finalized,,MMTT_STRAW-Dose-resposne_2014,,MMTT_FRTS-,</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>STRB-DEMO-Met,</t>
+          <t>STRB-DEMO-Met,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,</t>
+          <t>MMTT_SAT-Demo-Sheet1,,STRB-DEMO-Met,,MMTT_SAT-Demo-,</t>
         </is>
       </c>
     </row>
@@ -2670,6 +2670,366 @@
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Rest_F1</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>restscr</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>F1_category_</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Disinhib_F2</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hunger_F3</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>hung</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>hungn</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>fulln</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>des</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>desn</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>amt</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>amtn</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>thirst</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>thirstn</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>naus</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>nausn</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>satn</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>alert</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>alertn</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>tired</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>tiredn</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>pleas</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
